--- a/data/trans_orig/P33B5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{745E8491-84BD-4143-A18E-E1E81E17E049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C3EBE4D-2151-437D-89DA-4C58027BF521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A5582329-804E-402E-A341-B276FC58470A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F0679350-5DCE-446F-8CF6-DE9A46C360EC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="254">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -77,727 +77,724 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
   </si>
   <si>
     <t>7,15%</t>
   </si>
   <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>78,48%</t>
   </si>
   <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
   </si>
   <si>
     <t>82,16%</t>
   </si>
   <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1212,7 +1209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A06F824D-098B-4015-8847-CC7D36FD31C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B9A042-1A9F-49F8-9857-235A302AAD4E}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1665,7 +1662,7 @@
         <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -1674,10 +1671,10 @@
         <v>5178</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>63</v>
@@ -1728,10 +1725,10 @@
         <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,10 +1850,10 @@
         <v>82</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -1865,13 +1862,13 @@
         <v>28161</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>55</v>
@@ -1880,13 +1877,13 @@
         <v>45733</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1901,13 +1898,13 @@
         <v>4875</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
@@ -1916,13 +1913,13 @@
         <v>8382</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M15" s="7">
         <v>17</v>
@@ -1985,10 +1982,10 @@
         <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2003,13 +2000,13 @@
         <v>506771</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>727</v>
@@ -2018,13 +2015,13 @@
         <v>500714</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>1226</v>
@@ -2033,13 +2030,13 @@
         <v>1007484</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2095,7 +2092,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2107,13 +2104,13 @@
         <v>28731</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
@@ -2122,13 +2119,13 @@
         <v>56990</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>99</v>
@@ -2137,13 +2134,13 @@
         <v>85721</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2158,13 +2155,13 @@
         <v>7889</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -2173,10 +2170,10 @@
         <v>19012</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>130</v>
@@ -2296,7 +2293,7 @@
         <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,7 +2349,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2364,13 +2361,13 @@
         <v>45572</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>123</v>
@@ -2379,13 +2376,13 @@
         <v>76148</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>171</v>
@@ -2394,13 +2391,13 @@
         <v>121720</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2415,13 +2412,13 @@
         <v>15307</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -2430,13 +2427,13 @@
         <v>42028</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -2445,13 +2442,13 @@
         <v>57335</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,13 +2463,13 @@
         <v>62996</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>127</v>
@@ -2481,13 +2478,13 @@
         <v>70050</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>197</v>
@@ -2496,13 +2493,13 @@
         <v>133045</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2514,13 @@
         <v>474134</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H27" s="7">
         <v>683</v>
@@ -2532,13 +2529,13 @@
         <v>406075</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M27" s="7">
         <v>1211</v>
@@ -2547,13 +2544,13 @@
         <v>880209</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2609,7 +2606,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2621,13 +2618,13 @@
         <v>74890</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>283</v>
@@ -2636,13 +2633,13 @@
         <v>161869</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>394</v>
@@ -2651,13 +2648,13 @@
         <v>236759</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2669,13 @@
         <v>33787</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>111</v>
@@ -2687,13 +2684,13 @@
         <v>60629</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>200</v>
+        <v>121</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>161</v>
@@ -2702,13 +2699,13 @@
         <v>94415</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,10 +2720,10 @@
         <v>56346</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>207</v>
+        <v>105</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>208</v>
@@ -2744,7 +2741,7 @@
         <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="M31" s="7">
         <v>333</v>
@@ -2753,13 +2750,13 @@
         <v>176834</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2774,13 +2771,13 @@
         <v>532732</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H32" s="7">
         <v>1065</v>
@@ -2789,13 +2786,13 @@
         <v>682370</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M32" s="7">
         <v>1846</v>
@@ -2804,13 +2801,13 @@
         <v>1215102</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,7 +2819,7 @@
         <v>1028</v>
       </c>
       <c r="D33" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>47</v>
@@ -2878,13 +2875,13 @@
         <v>174036</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H34" s="7">
         <v>533</v>
@@ -2893,13 +2890,13 @@
         <v>343355</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="M34" s="7">
         <v>736</v>
@@ -2908,13 +2905,13 @@
         <v>517391</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>228</v>
+        <v>105</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,13 +2926,13 @@
         <v>65441</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H35" s="7">
         <v>230</v>
@@ -2944,13 +2941,13 @@
         <v>138223</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M35" s="7">
         <v>309</v>
@@ -2959,13 +2956,13 @@
         <v>203664</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="P35" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2980,13 +2977,13 @@
         <v>223700</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H36" s="7">
         <v>582</v>
@@ -2995,28 +2992,28 @@
         <v>336996</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>835</v>
       </c>
       <c r="N36" s="7">
-        <v>560695</v>
+        <v>560696</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>243</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>244</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3028,13 @@
         <v>2919903</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H37" s="7">
         <v>4015</v>
@@ -3046,28 +3043,28 @@
         <v>2984948</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M37" s="7">
         <v>6854</v>
       </c>
       <c r="N37" s="7">
-        <v>5904851</v>
+        <v>5904852</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3109,7 +3106,7 @@
         <v>8734</v>
       </c>
       <c r="N38" s="7">
-        <v>7186601</v>
+        <v>7186602</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>47</v>
@@ -3123,7 +3120,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C3EBE4D-2151-437D-89DA-4C58027BF521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5A6B52A-21F0-4D1D-8F55-12C434986233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F0679350-5DCE-446F-8CF6-DE9A46C360EC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CED59E23-E42B-4A4E-8BFA-14A5A874043B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B9A042-1A9F-49F8-9857-235A302AAD4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CC367B-1A4F-4C5D-8F20-47B5EFAEE57C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33B5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5A6B52A-21F0-4D1D-8F55-12C434986233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFC8129F-0604-466D-9EC6-FEFCCA2E8469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CED59E23-E42B-4A4E-8BFA-14A5A874043B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ECF86FFF-C5E9-4335-8BDD-5B4D28C592AE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="255">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -77,724 +77,727 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
     <t>4,9%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
   </si>
   <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,97%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
   </si>
   <si>
     <t>5,73%</t>
   </si>
   <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>71,75%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
+    <t>7,49%</t>
   </si>
   <si>
     <t>8,86%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
   </si>
   <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
   </si>
   <si>
     <t>78,48%</t>
   </si>
   <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
   </si>
   <si>
     <t>82,16%</t>
   </si>
   <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1209,7 +1212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CC367B-1A4F-4C5D-8F20-47B5EFAEE57C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331C795B-0783-4F20-A25C-D186AFACCD98}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1662,7 +1665,7 @@
         <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -1671,10 +1674,10 @@
         <v>5178</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>63</v>
@@ -1725,10 +1728,10 @@
         <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,10 +1853,10 @@
         <v>82</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
@@ -1862,13 +1865,13 @@
         <v>28161</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>55</v>
@@ -1877,13 +1880,13 @@
         <v>45733</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1898,13 +1901,13 @@
         <v>4875</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" s="7">
         <v>13</v>
@@ -1913,13 +1916,13 @@
         <v>8382</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="M15" s="7">
         <v>17</v>
@@ -1982,10 +1985,10 @@
         <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,13 +2003,13 @@
         <v>506771</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>727</v>
@@ -2015,13 +2018,13 @@
         <v>500714</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>1226</v>
@@ -2030,13 +2033,13 @@
         <v>1007484</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,7 +2095,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2104,13 +2107,13 @@
         <v>28731</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
@@ -2119,13 +2122,13 @@
         <v>56990</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>99</v>
@@ -2134,13 +2137,13 @@
         <v>85721</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,13 +2158,13 @@
         <v>7889</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
@@ -2170,10 +2173,10 @@
         <v>19012</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>130</v>
@@ -2293,7 +2296,7 @@
         <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>151</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,7 +2352,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2361,13 +2364,13 @@
         <v>45572</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>123</v>
@@ -2376,13 +2379,13 @@
         <v>76148</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>171</v>
@@ -2391,13 +2394,13 @@
         <v>121720</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,13 +2415,13 @@
         <v>15307</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
@@ -2427,13 +2430,13 @@
         <v>42028</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
@@ -2442,13 +2445,13 @@
         <v>57335</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2463,13 +2466,13 @@
         <v>62996</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>127</v>
@@ -2478,13 +2481,13 @@
         <v>70050</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M26" s="7">
         <v>197</v>
@@ -2493,13 +2496,13 @@
         <v>133045</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2517,13 @@
         <v>474134</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H27" s="7">
         <v>683</v>
@@ -2529,13 +2532,13 @@
         <v>406075</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M27" s="7">
         <v>1211</v>
@@ -2544,13 +2547,13 @@
         <v>880209</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,7 +2609,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2618,13 +2621,13 @@
         <v>74890</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H29" s="7">
         <v>283</v>
@@ -2633,13 +2636,13 @@
         <v>161869</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M29" s="7">
         <v>394</v>
@@ -2648,13 +2651,13 @@
         <v>236759</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2672,13 @@
         <v>33787</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H30" s="7">
         <v>111</v>
@@ -2684,13 +2687,13 @@
         <v>60629</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>121</v>
+        <v>200</v>
       </c>
       <c r="K30" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M30" s="7">
         <v>161</v>
@@ -2699,13 +2702,13 @@
         <v>94415</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,10 +2723,10 @@
         <v>56346</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>208</v>
@@ -2741,7 +2744,7 @@
         <v>210</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="M31" s="7">
         <v>333</v>
@@ -2750,13 +2753,13 @@
         <v>176834</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2774,13 @@
         <v>532732</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H32" s="7">
         <v>1065</v>
@@ -2786,13 +2789,13 @@
         <v>682370</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M32" s="7">
         <v>1846</v>
@@ -2801,13 +2804,13 @@
         <v>1215102</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2819,7 +2822,7 @@
         <v>1028</v>
       </c>
       <c r="D33" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>47</v>
@@ -2875,13 +2878,13 @@
         <v>174036</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H34" s="7">
         <v>533</v>
@@ -2890,13 +2893,13 @@
         <v>343355</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="M34" s="7">
         <v>736</v>
@@ -2905,13 +2908,13 @@
         <v>517391</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2929,13 @@
         <v>65441</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>232</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H35" s="7">
         <v>230</v>
@@ -2941,13 +2944,13 @@
         <v>138223</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M35" s="7">
         <v>309</v>
@@ -2956,13 +2959,13 @@
         <v>203664</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>26</v>
+        <v>235</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>50</v>
+        <v>236</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,13 +2980,13 @@
         <v>223700</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>141</v>
+        <v>238</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H36" s="7">
         <v>582</v>
@@ -2992,28 +2995,28 @@
         <v>336996</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>240</v>
+        <v>102</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M36" s="7">
         <v>835</v>
       </c>
       <c r="N36" s="7">
-        <v>560696</v>
+        <v>560695</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>243</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>172</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,13 +3031,13 @@
         <v>2919903</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H37" s="7">
         <v>4015</v>
@@ -3043,28 +3046,28 @@
         <v>2984948</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M37" s="7">
         <v>6854</v>
       </c>
       <c r="N37" s="7">
-        <v>5904852</v>
+        <v>5904851</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,7 +3109,7 @@
         <v>8734</v>
       </c>
       <c r="N38" s="7">
-        <v>7186602</v>
+        <v>7186601</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>47</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFC8129F-0604-466D-9EC6-FEFCCA2E8469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{965B4BFF-1B50-4D3D-AE65-A1DDFFFD7697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{ECF86FFF-C5E9-4335-8BDD-5B4D28C592AE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D4B0C8F5-F403-4318-88D6-477FBDD50D84}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="292">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -65,739 +65,850 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Diariamente o casi diariamente</t>
   </si>
   <si>
-    <t>0,91%</t>
+    <t>0,98%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>5,34%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>2,94%</t>
   </si>
   <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>68,8%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>73,26%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
   </si>
   <si>
     <t>2,58%</t>
   </si>
   <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>86,27%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1212,8 +1323,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{331C795B-0783-4F20-A25C-D186AFACCD98}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC36134-269B-41AF-A6A4-FE47341A288A}">
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1333,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>3439</v>
+        <v>3932</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1348,7 +1459,7 @@
         <v>4</v>
       </c>
       <c r="I4" s="7">
-        <v>10442</v>
+        <v>8380</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1363,7 +1474,7 @@
         <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>13881</v>
+        <v>12312</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1384,148 +1495,148 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>3422</v>
+        <v>3823</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>3154</v>
+        <v>2753</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>6577</v>
+        <v>6576</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
         <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>6632</v>
+        <v>6438</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>13725</v>
+        <v>12076</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
         <v>11</v>
       </c>
       <c r="N6" s="7">
-        <v>20357</v>
+        <v>18513</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>167</v>
       </c>
       <c r="D7" s="7">
-        <v>364186</v>
+        <v>385795</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="7">
         <v>193</v>
       </c>
       <c r="I7" s="7">
-        <v>327635</v>
+        <v>289991</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
         <v>360</v>
       </c>
       <c r="N7" s="7">
-        <v>691821</v>
+        <v>675786</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1537,51 +1648,51 @@
         <v>172</v>
       </c>
       <c r="D8" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
         <v>207</v>
       </c>
       <c r="I8" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>379</v>
       </c>
       <c r="N8" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
@@ -1590,46 +1701,46 @@
         <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>3832</v>
+        <v>3311</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
       </c>
       <c r="I9" s="7">
-        <v>9744</v>
+        <v>8712</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
       </c>
       <c r="N9" s="7">
-        <v>13576</v>
+        <v>12024</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1641,148 +1752,148 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>5018</v>
+        <v>4249</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>5178</v>
+        <v>4415</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7">
         <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>20837</v>
+        <v>19730</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
       </c>
       <c r="I11" s="7">
-        <v>18495</v>
+        <v>16529</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M11" s="7">
         <v>38</v>
       </c>
       <c r="N11" s="7">
-        <v>39332</v>
+        <v>36259</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="7">
         <v>279</v>
       </c>
       <c r="D12" s="7">
-        <v>403567</v>
+        <v>400340</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>427</v>
       </c>
       <c r="I12" s="7">
-        <v>465320</v>
+        <v>482013</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M12" s="7">
         <v>706</v>
       </c>
       <c r="N12" s="7">
-        <v>868887</v>
+        <v>882354</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1794,51 +1905,51 @@
         <v>302</v>
       </c>
       <c r="D13" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>460</v>
       </c>
       <c r="I13" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>762</v>
       </c>
       <c r="N13" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1847,25 +1958,25 @@
         <v>15</v>
       </c>
       <c r="D14" s="7">
-        <v>17572</v>
+        <v>16059</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>40</v>
       </c>
       <c r="I14" s="7">
-        <v>28161</v>
+        <v>25984</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>86</v>
@@ -1877,7 +1988,7 @@
         <v>55</v>
       </c>
       <c r="N14" s="7">
-        <v>45733</v>
+        <v>42043</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>88</v>
@@ -1898,7 +2009,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="7">
-        <v>4875</v>
+        <v>4270</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>91</v>
@@ -1913,7 +2024,7 @@
         <v>13</v>
       </c>
       <c r="I15" s="7">
-        <v>8382</v>
+        <v>7679</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>94</v>
@@ -1922,19 +2033,19 @@
         <v>95</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="M15" s="7">
         <v>17</v>
       </c>
       <c r="N15" s="7">
-        <v>13257</v>
+        <v>11949</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
         <v>98</v>
@@ -1943,13 +2054,13 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7">
         <v>28</v>
       </c>
       <c r="D16" s="7">
-        <v>28034</v>
+        <v>26772</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>99</v>
@@ -1964,7 +2075,7 @@
         <v>66</v>
       </c>
       <c r="I16" s="7">
-        <v>46219</v>
+        <v>42643</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>102</v>
@@ -1979,67 +2090,67 @@
         <v>94</v>
       </c>
       <c r="N16" s="7">
-        <v>74253</v>
+        <v>69415</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7">
         <v>499</v>
       </c>
       <c r="D17" s="7">
-        <v>506771</v>
+        <v>489237</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>727</v>
       </c>
       <c r="I17" s="7">
-        <v>500714</v>
+        <v>466163</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M17" s="7">
         <v>1226</v>
       </c>
       <c r="N17" s="7">
-        <v>1007484</v>
+        <v>955400</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2051,51 +2162,51 @@
         <v>546</v>
       </c>
       <c r="D18" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H18" s="7">
         <v>846</v>
       </c>
       <c r="I18" s="7">
-        <v>583476</v>
+        <v>542468</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M18" s="7">
         <v>1392</v>
       </c>
       <c r="N18" s="7">
-        <v>1140727</v>
+        <v>1078806</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2104,46 +2215,46 @@
         <v>25</v>
       </c>
       <c r="D19" s="7">
-        <v>28731</v>
+        <v>26728</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="H19" s="7">
         <v>74</v>
       </c>
       <c r="I19" s="7">
-        <v>56990</v>
+        <v>50736</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>99</v>
       </c>
       <c r="N19" s="7">
-        <v>85721</v>
+        <v>77464</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,43 +2266,43 @@
         <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>7889</v>
+        <v>7580</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>31</v>
       </c>
       <c r="I20" s="7">
-        <v>19012</v>
+        <v>17424</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
       </c>
       <c r="N20" s="7">
-        <v>26901</v>
+        <v>25004</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>133</v>
@@ -2200,13 +2311,13 @@
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7">
         <v>47</v>
       </c>
       <c r="D21" s="7">
-        <v>48856</v>
+        <v>45221</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>134</v>
@@ -2221,7 +2332,7 @@
         <v>115</v>
       </c>
       <c r="I21" s="7">
-        <v>68018</v>
+        <v>61762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>137</v>
@@ -2236,7 +2347,7 @@
         <v>162</v>
       </c>
       <c r="N21" s="7">
-        <v>116874</v>
+        <v>106983</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>140</v>
@@ -2251,13 +2362,13 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7">
         <v>585</v>
       </c>
       <c r="D22" s="7">
-        <v>638514</v>
+        <v>808256</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>143</v>
@@ -2272,7 +2383,7 @@
         <v>920</v>
       </c>
       <c r="I22" s="7">
-        <v>602834</v>
+        <v>582576</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>146</v>
@@ -2287,7 +2398,7 @@
         <v>1505</v>
       </c>
       <c r="N22" s="7">
-        <v>1241348</v>
+        <v>1390834</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>149</v>
@@ -2296,7 +2407,7 @@
         <v>150</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2308,51 +2419,51 @@
         <v>665</v>
       </c>
       <c r="D23" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H23" s="7">
         <v>1140</v>
       </c>
       <c r="I23" s="7">
-        <v>746854</v>
+        <v>712498</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M23" s="7">
         <v>1805</v>
       </c>
       <c r="N23" s="7">
-        <v>1470844</v>
+        <v>1600285</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2361,46 +2472,46 @@
         <v>48</v>
       </c>
       <c r="D24" s="7">
-        <v>45572</v>
+        <v>40834</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>123</v>
       </c>
       <c r="I24" s="7">
-        <v>76148</v>
+        <v>68461</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M24" s="7">
         <v>171</v>
       </c>
       <c r="N24" s="7">
-        <v>121720</v>
+        <v>109295</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2412,79 +2523,79 @@
         <v>15</v>
       </c>
       <c r="D25" s="7">
-        <v>15307</v>
+        <v>13991</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>68</v>
       </c>
       <c r="I25" s="7">
-        <v>42028</v>
+        <v>37909</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
         <v>83</v>
       </c>
       <c r="N25" s="7">
-        <v>57335</v>
+        <v>51900</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
         <v>70</v>
       </c>
       <c r="D26" s="7">
-        <v>62996</v>
+        <v>58133</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
         <v>127</v>
       </c>
       <c r="I26" s="7">
-        <v>70050</v>
+        <v>63856</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>175</v>
@@ -2493,7 +2604,7 @@
         <v>197</v>
       </c>
       <c r="N26" s="7">
-        <v>133045</v>
+        <v>121990</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>176</v>
@@ -2508,13 +2619,13 @@
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7">
         <v>528</v>
       </c>
       <c r="D27" s="7">
-        <v>474134</v>
+        <v>446248</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>179</v>
@@ -2529,7 +2640,7 @@
         <v>683</v>
       </c>
       <c r="I27" s="7">
-        <v>406075</v>
+        <v>375339</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>182</v>
@@ -2544,7 +2655,7 @@
         <v>1211</v>
       </c>
       <c r="N27" s="7">
-        <v>880209</v>
+        <v>821588</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>185</v>
@@ -2565,46 +2676,46 @@
         <v>661</v>
       </c>
       <c r="D28" s="7">
-        <v>598009</v>
+        <v>559207</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H28" s="7">
         <v>1001</v>
       </c>
       <c r="I28" s="7">
-        <v>594301</v>
+        <v>545566</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
         <v>1662</v>
       </c>
       <c r="N28" s="7">
-        <v>1192310</v>
+        <v>1104773</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,10 +2726,10 @@
         <v>10</v>
       </c>
       <c r="C29" s="7">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="D29" s="7">
-        <v>74890</v>
+        <v>28376</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>189</v>
@@ -2630,10 +2741,10 @@
         <v>191</v>
       </c>
       <c r="H29" s="7">
-        <v>283</v>
+        <v>117</v>
       </c>
       <c r="I29" s="7">
-        <v>161869</v>
+        <v>58933</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>192</v>
@@ -2645,19 +2756,19 @@
         <v>194</v>
       </c>
       <c r="M29" s="7">
-        <v>394</v>
+        <v>162</v>
       </c>
       <c r="N29" s="7">
-        <v>236759</v>
+        <v>87310</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>195</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,61 +2777,61 @@
         <v>20</v>
       </c>
       <c r="C30" s="7">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D30" s="7">
-        <v>33787</v>
+        <v>15953</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="I30" s="7">
-        <v>60629</v>
+        <v>18667</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="N30" s="7">
-        <v>94415</v>
+        <v>34619</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>205</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C31" s="7">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="D31" s="7">
-        <v>56346</v>
+        <v>28496</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>206</v>
@@ -2732,25 +2843,25 @@
         <v>208</v>
       </c>
       <c r="H31" s="7">
-        <v>247</v>
+        <v>114</v>
       </c>
       <c r="I31" s="7">
-        <v>120488</v>
+        <v>50418</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>209</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="L31" s="7" t="s">
-        <v>195</v>
-      </c>
       <c r="M31" s="7">
-        <v>333</v>
+        <v>161</v>
       </c>
       <c r="N31" s="7">
-        <v>176834</v>
+        <v>78914</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>211</v>
@@ -2765,13 +2876,13 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7">
-        <v>781</v>
+        <v>453</v>
       </c>
       <c r="D32" s="7">
-        <v>532732</v>
+        <v>295340</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>214</v>
@@ -2783,10 +2894,10 @@
         <v>216</v>
       </c>
       <c r="H32" s="7">
-        <v>1065</v>
+        <v>557</v>
       </c>
       <c r="I32" s="7">
-        <v>682370</v>
+        <v>479760</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>217</v>
@@ -2798,10 +2909,10 @@
         <v>219</v>
       </c>
       <c r="M32" s="7">
-        <v>1846</v>
+        <v>1010</v>
       </c>
       <c r="N32" s="7">
-        <v>1215102</v>
+        <v>775100</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>220</v>
@@ -2819,102 +2930,102 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D33" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H33" s="7">
-        <v>1706</v>
+        <v>826</v>
       </c>
       <c r="I33" s="7">
-        <v>1025356</v>
+        <v>607778</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M33" s="7">
-        <v>2734</v>
+        <v>1396</v>
       </c>
       <c r="N33" s="7">
-        <v>1723110</v>
+        <v>975943</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>223</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="D34" s="7">
-        <v>174036</v>
+        <v>39408</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>30</v>
+        <v>224</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H34" s="7">
-        <v>533</v>
+        <v>166</v>
       </c>
       <c r="I34" s="7">
-        <v>343355</v>
+        <v>82745</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c r="M34" s="7">
-        <v>736</v>
+        <v>232</v>
       </c>
       <c r="N34" s="7">
-        <v>517391</v>
+        <v>122153</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,151 +3034,151 @@
         <v>20</v>
       </c>
       <c r="C35" s="7">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="D35" s="7">
-        <v>65441</v>
+        <v>14484</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="H35" s="7">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="I35" s="7">
-        <v>138223</v>
+        <v>34998</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M35" s="7">
-        <v>309</v>
+        <v>98</v>
       </c>
       <c r="N35" s="7">
-        <v>203664</v>
+        <v>49482</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>236</v>
+        <v>207</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" s="7">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="D36" s="7">
-        <v>223700</v>
+        <v>22845</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="H36" s="7">
-        <v>582</v>
+        <v>133</v>
       </c>
       <c r="I36" s="7">
-        <v>336996</v>
+        <v>58512</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>102</v>
+        <v>245</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="M36" s="7">
-        <v>835</v>
+        <v>172</v>
       </c>
       <c r="N36" s="7">
-        <v>560695</v>
+        <v>81357</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7">
-        <v>2839</v>
+        <v>328</v>
       </c>
       <c r="D37" s="7">
-        <v>2919903</v>
+        <v>206022</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="H37" s="7">
-        <v>4015</v>
+        <v>508</v>
       </c>
       <c r="I37" s="7">
-        <v>2984948</v>
+        <v>249010</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M37" s="7">
-        <v>6854</v>
+        <v>836</v>
       </c>
       <c r="N37" s="7">
-        <v>5904851</v>
+        <v>455032</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,63 +3187,321 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
+        <v>458</v>
+      </c>
+      <c r="D38" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H38" s="7">
+        <v>880</v>
+      </c>
+      <c r="I38" s="7">
+        <v>425265</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N38" s="7">
+        <v>708024</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="7">
+        <v>203</v>
+      </c>
+      <c r="D39" s="7">
+        <v>158650</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H39" s="7">
+        <v>533</v>
+      </c>
+      <c r="I39" s="7">
+        <v>303951</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="M39" s="7">
+        <v>736</v>
+      </c>
+      <c r="N39" s="7">
+        <v>462601</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="7">
+        <v>79</v>
+      </c>
+      <c r="D40" s="7">
+        <v>60266</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H40" s="7">
+        <v>230</v>
+      </c>
+      <c r="I40" s="7">
+        <v>123679</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="M40" s="7">
+        <v>309</v>
+      </c>
+      <c r="N40" s="7">
+        <v>183945</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="7">
+        <v>253</v>
+      </c>
+      <c r="D41" s="7">
+        <v>207635</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H41" s="7">
+        <v>582</v>
+      </c>
+      <c r="I41" s="7">
+        <v>305795</v>
+      </c>
+      <c r="J41" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M41" s="7">
+        <v>835</v>
+      </c>
+      <c r="N41" s="7">
+        <v>513430</v>
+      </c>
+      <c r="O41" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q41" s="7" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="7">
+        <v>2839</v>
+      </c>
+      <c r="D42" s="7">
+        <v>3031240</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H42" s="7">
+        <v>4015</v>
+      </c>
+      <c r="I42" s="7">
+        <v>2924853</v>
+      </c>
+      <c r="J42" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="M42" s="7">
+        <v>6854</v>
+      </c>
+      <c r="N42" s="7">
+        <v>5956093</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="7">
         <v>3374</v>
       </c>
-      <c r="D38" s="7">
-        <v>3383080</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="D43" s="7">
+        <v>3457791</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H43" s="7">
         <v>5360</v>
       </c>
-      <c r="I38" s="7">
-        <v>3803521</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="I43" s="7">
+        <v>3658279</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="L43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="M43" s="7">
         <v>8734</v>
       </c>
-      <c r="N38" s="7">
-        <v>7186601</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>254</v>
+      <c r="N43" s="7">
+        <v>7116070</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A38"/>
+    <mergeCell ref="A39:A43"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/P33B5_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Edad-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que toma algún remedio para dormir (no medicamentos) en 2023</t>
+          <t>Población según la frecuencia con la que toma algún remedio para dormir (no medicamentos) en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
